--- a/data/financial_statements/sofp/PARA.xlsx
+++ b/data/financial_statements/sofp/PARA.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,129 +613,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>3383000000</v>
@@ -745,8 +856,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>6588000000</v>
@@ -867,8 +978,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1492000000</v>
@@ -989,8 +1100,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2061000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>13524000000</v>
@@ -1233,23 +1344,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>3182000000</v>
+        <v>1700000000</v>
       </c>
       <c r="C7">
-        <v>3249000000</v>
+        <v>1705000000</v>
       </c>
       <c r="D7">
-        <v>3320000000</v>
+        <v>1706000000</v>
       </c>
       <c r="E7">
-        <v>3366000000</v>
+        <v>1736000000</v>
       </c>
       <c r="F7">
-        <v>3320000000</v>
+        <v>1809000000</v>
       </c>
       <c r="G7">
         <v>1979000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
         <v>636000000</v>
@@ -1378,8 +1489,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>19142000000</v>
@@ -1500,8 +1611,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1254000000</v>
@@ -1553,23 +1664,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>18615000000</v>
+        <v>3929000000</v>
       </c>
       <c r="C11">
-        <v>17425000000</v>
+        <v>3906000000</v>
       </c>
       <c r="D11">
-        <v>17098000000</v>
+        <v>3771000000</v>
       </c>
       <c r="E11">
-        <v>15540000000</v>
+        <v>3843000000</v>
       </c>
       <c r="F11">
-        <v>15461000000</v>
+        <v>3829000000</v>
       </c>
       <c r="G11">
         <v>3658000000</v>
@@ -1675,8 +1786,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>43763000000</v>
@@ -1797,8 +1908,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>57287000000</v>
@@ -1919,8 +2030,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>196000000</v>
@@ -1957,23 +2068,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>2780000000</v>
+        <v>943000000</v>
       </c>
       <c r="C15">
-        <v>2460000000</v>
+        <v>853000000</v>
       </c>
       <c r="D15">
-        <v>2664000000</v>
+        <v>977000000</v>
       </c>
       <c r="E15">
-        <v>2142000000</v>
+        <v>800000000</v>
       </c>
       <c r="F15">
-        <v>2224000000</v>
+        <v>827000000</v>
       </c>
       <c r="G15">
         <v>602000000</v>
@@ -2079,8 +2190,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>3908000000</v>
@@ -2201,14 +2312,14 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>574000000</v>
       </c>
       <c r="C17">
-        <v>333000000</v>
+        <v>37000000</v>
       </c>
       <c r="D17">
         <v>372000000</v>
@@ -2317,8 +2428,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="N18">
         <v>94000000</v>
@@ -2367,8 +2478,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>796000000</v>
@@ -2465,23 +2576,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>6972000000</v>
+        <v>3949000000</v>
       </c>
       <c r="C20">
-        <v>6843000000</v>
+        <v>3697000000</v>
       </c>
       <c r="D20">
-        <v>6687000000</v>
+        <v>3546000000</v>
       </c>
       <c r="E20">
-        <v>7001000000</v>
+        <v>3341000000</v>
       </c>
       <c r="F20">
-        <v>6674000000</v>
+        <v>3237000000</v>
       </c>
       <c r="G20">
         <v>3406000000</v>
@@ -2587,8 +2698,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>10326000000</v>
@@ -2709,23 +2820,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>17106000000</v>
+        <v>15638000000</v>
       </c>
       <c r="C22">
-        <v>17287000000</v>
+        <v>15773000000</v>
       </c>
       <c r="D22">
-        <v>18376000000</v>
+        <v>16797000000</v>
       </c>
       <c r="E22">
-        <v>19296000000</v>
+        <v>17698000000</v>
       </c>
       <c r="F22">
-        <v>19221000000</v>
+        <v>17696000000</v>
       </c>
       <c r="G22">
         <v>17703000000</v>
@@ -2831,8 +2942,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>1844000000</v>
@@ -2953,23 +3064,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>-217000000</v>
+        <v>1037000000</v>
       </c>
       <c r="C24">
-        <v>-218000000</v>
+        <v>1040000000</v>
       </c>
       <c r="D24">
-        <v>-213000000</v>
+        <v>1067000000</v>
       </c>
       <c r="E24">
-        <v>-143000000</v>
+        <v>1063000000</v>
       </c>
       <c r="F24">
-        <v>-256000000</v>
+        <v>965000000</v>
       </c>
       <c r="G24">
         <v>888000000</v>
@@ -3075,31 +3186,31 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C25">
         <v>108000000</v>
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>5585000000</v>
+        <v>3632000000</v>
       </c>
       <c r="C26">
-        <v>5610000000</v>
+        <v>3634000000</v>
       </c>
       <c r="D26">
-        <v>5615000000</v>
+        <v>3597000000</v>
       </c>
       <c r="E26">
-        <v>5705000000</v>
+        <v>3653000000</v>
       </c>
       <c r="F26">
-        <v>5641000000</v>
+        <v>3570000000</v>
       </c>
       <c r="G26">
         <v>3664000000</v>
@@ -3205,8 +3316,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>23822000000</v>
@@ -3327,23 +3438,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>34054000000</v>
+        <v>34148000000</v>
       </c>
       <c r="C28">
-        <v>33573000000</v>
+        <v>33681000000</v>
       </c>
       <c r="D28">
-        <v>34781000000</v>
+        <v>34886000000</v>
       </c>
       <c r="E28">
-        <v>35543000000</v>
+        <v>35650000000</v>
       </c>
       <c r="F28">
-        <v>34740000000</v>
+        <v>34843000000</v>
       </c>
       <c r="G28">
         <v>34548000000</v>
@@ -3449,8 +3560,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>33034000000</v>
@@ -3571,8 +3682,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1000000</v>
@@ -3693,8 +3804,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>14889000000</v>
@@ -3815,8 +3926,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>22958000000</v>
@@ -3937,23 +4048,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>22647000000</v>
+        <v>23139000000</v>
       </c>
       <c r="C33">
-        <v>22776000000</v>
+        <v>23280000000</v>
       </c>
       <c r="D33">
-        <v>22664000000</v>
+        <v>23157000000</v>
       </c>
       <c r="E33">
-        <v>22402000000</v>
+        <v>22970000000</v>
       </c>
       <c r="F33">
-        <v>20559000000</v>
+        <v>21069000000</v>
       </c>
       <c r="G33">
         <v>20656000000</v>
@@ -4059,23 +4170,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>22647000000</v>
+        <v>23139000000</v>
       </c>
       <c r="C34">
-        <v>22776000000</v>
+        <v>23280000000</v>
       </c>
       <c r="D34">
-        <v>22664000000</v>
+        <v>23157000000</v>
       </c>
       <c r="E34">
-        <v>22402000000</v>
+        <v>22970000000</v>
       </c>
       <c r="F34">
-        <v>20559000000</v>
+        <v>21069000000</v>
       </c>
       <c r="G34">
         <v>20656000000</v>
@@ -4181,8 +4292,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>57287000000</v>
@@ -4303,8 +4414,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>649000000</v>
@@ -4425,8 +4536,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>3997000000</v>
@@ -4547,23 +4658,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>14297000000</v>
+        <v>12829000000</v>
       </c>
       <c r="C38">
-        <v>13583000000</v>
+        <v>11773000000</v>
       </c>
       <c r="D38">
-        <v>13446000000</v>
+        <v>11867000000</v>
       </c>
       <c r="E38">
-        <v>13365000000</v>
+        <v>11767000000</v>
       </c>
       <c r="F38">
-        <v>14413000000</v>
+        <v>12888000000</v>
       </c>
       <c r="G38">
         <v>12345000000</v>
@@ -4669,23 +4780,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>17680000000</v>
+        <v>16212000000</v>
       </c>
       <c r="C39">
-        <v>17620000000</v>
+        <v>15810000000</v>
       </c>
       <c r="D39">
-        <v>18748000000</v>
+        <v>17169000000</v>
       </c>
       <c r="E39">
-        <v>19632000000</v>
+        <v>18034000000</v>
       </c>
       <c r="F39">
-        <v>19236000000</v>
+        <v>17711000000</v>
       </c>
       <c r="G39">
         <v>17720000000</v>
